--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785251</v>
+        <v>111785199</v>
       </c>
       <c r="B69" t="n">
-        <v>93161</v>
+        <v>89416</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8658,25 +8658,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1079</v>
+        <v>1205</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577283.2535308318</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R69" t="n">
-        <v>6944533.598891968</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785244</v>
+        <v>111785228</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577364.1822193989</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R70" t="n">
-        <v>6944621.578847388</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785230</v>
+        <v>111785229</v>
       </c>
       <c r="B71" t="n">
         <v>78578</v>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577261.8704127767</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R71" t="n">
-        <v>6944620.109213427</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785235</v>
+        <v>111785191</v>
       </c>
       <c r="B72" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8998,21 +8998,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577226.625646919</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R72" t="n">
-        <v>6944648.749557905</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785192</v>
+        <v>111785235</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9110,21 +9110,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577281.7951240344</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R73" t="n">
-        <v>6944714.487089146</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785199</v>
+        <v>111785201</v>
       </c>
       <c r="B74" t="n">
-        <v>89416</v>
+        <v>78512</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9222,21 +9222,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1205</v>
+        <v>6456</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577256.110519147</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R74" t="n">
-        <v>6944531.123615563</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785206</v>
+        <v>111785200</v>
       </c>
       <c r="B75" t="n">
-        <v>77268</v>
+        <v>78512</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>228912</v>
+        <v>6456</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577235.6798241453</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R75" t="n">
-        <v>6944655.86623876</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785202</v>
+        <v>111785206</v>
       </c>
       <c r="B76" t="n">
-        <v>78512</v>
+        <v>77268</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6456</v>
+        <v>228912</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577215.0430418774</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R76" t="n">
-        <v>6944631.445974576</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785191</v>
+        <v>111785192</v>
       </c>
       <c r="B77" t="n">
         <v>89405</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577235.6798241453</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R77" t="n">
-        <v>6944655.86623876</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785201</v>
+        <v>111785202</v>
       </c>
       <c r="B78" t="n">
         <v>78512</v>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577248.2772659193</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R78" t="n">
-        <v>6944530.940753835</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785200</v>
+        <v>111785190</v>
       </c>
       <c r="B79" t="n">
-        <v>78512</v>
+        <v>94134</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6456</v>
+        <v>53</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577256.110519147</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R79" t="n">
-        <v>6944531.123615563</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785229</v>
+        <v>111785230</v>
       </c>
       <c r="B80" t="n">
         <v>78578</v>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577208.3826684169</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R80" t="n">
-        <v>6944521.722980071</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785190</v>
+        <v>111785244</v>
       </c>
       <c r="B81" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10002,25 +10002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577242.972410051</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R81" t="n">
-        <v>6944540.945152098</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785228</v>
+        <v>111785251</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>93161</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +10114,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>1079</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577256.110519147</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R82" t="n">
-        <v>6944531.123615563</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785199</v>
+        <v>111785202</v>
       </c>
       <c r="B69" t="n">
-        <v>89416</v>
+        <v>78512</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8662,21 +8662,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1205</v>
+        <v>6456</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577256.110519147</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R69" t="n">
-        <v>6944531.123615563</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785228</v>
+        <v>111785201</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577256.110519147</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R70" t="n">
-        <v>6944531.123615563</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785229</v>
+        <v>111785251</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>93161</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>1079</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577208.3826684169</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R71" t="n">
-        <v>6944521.722980071</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785191</v>
+        <v>111785229</v>
       </c>
       <c r="B72" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8998,21 +8998,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577235.6798241453</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R72" t="n">
-        <v>6944655.86623876</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785235</v>
+        <v>111785206</v>
       </c>
       <c r="B73" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9110,21 +9110,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577226.625646919</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R73" t="n">
-        <v>6944648.749557905</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785201</v>
+        <v>111785230</v>
       </c>
       <c r="B74" t="n">
-        <v>78512</v>
+        <v>78578</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577248.2772659193</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R74" t="n">
-        <v>6944530.940753835</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785200</v>
+        <v>111785199</v>
       </c>
       <c r="B75" t="n">
-        <v>78512</v>
+        <v>89416</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9334,21 +9334,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6456</v>
+        <v>1205</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785206</v>
+        <v>111785192</v>
       </c>
       <c r="B76" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9446,21 +9446,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577235.6798241453</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R76" t="n">
-        <v>6944655.86623876</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785192</v>
+        <v>111785228</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9558,21 +9558,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577281.7951240344</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R77" t="n">
-        <v>6944714.487089146</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785202</v>
+        <v>111785191</v>
       </c>
       <c r="B78" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9666,25 +9666,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577215.0430418774</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R78" t="n">
-        <v>6944631.445974576</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785190</v>
+        <v>111785244</v>
       </c>
       <c r="B79" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577242.972410051</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R79" t="n">
-        <v>6944540.945152098</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785230</v>
+        <v>111785190</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9894,21 +9894,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577261.8704127767</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R80" t="n">
-        <v>6944620.109213427</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785244</v>
+        <v>111785235</v>
       </c>
       <c r="B81" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10002,25 +10002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577364.1822193989</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R81" t="n">
-        <v>6944621.578847388</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785251</v>
+        <v>111785200</v>
       </c>
       <c r="B82" t="n">
-        <v>93161</v>
+        <v>78512</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +10114,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1079</v>
+        <v>6456</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577283.2535308318</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R82" t="n">
-        <v>6944533.598891968</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785202</v>
+        <v>111785199</v>
       </c>
       <c r="B69" t="n">
-        <v>78512</v>
+        <v>89416</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8662,21 +8662,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6456</v>
+        <v>1205</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577215.0430418774</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R69" t="n">
-        <v>6944631.445974576</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785201</v>
+        <v>111785229</v>
       </c>
       <c r="B70" t="n">
-        <v>78512</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577248.2772659193</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R70" t="n">
-        <v>6944530.940753835</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785251</v>
+        <v>111785201</v>
       </c>
       <c r="B71" t="n">
-        <v>93161</v>
+        <v>78512</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1079</v>
+        <v>6456</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577283.2535308318</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R71" t="n">
-        <v>6944533.598891968</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785229</v>
+        <v>111785206</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>77268</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8998,21 +8998,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577208.3826684169</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R72" t="n">
-        <v>6944521.722980071</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785206</v>
+        <v>111785192</v>
       </c>
       <c r="B73" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9110,21 +9110,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577235.6798241453</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R73" t="n">
-        <v>6944655.86623876</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785230</v>
+        <v>111785200</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577261.8704127767</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R74" t="n">
-        <v>6944620.109213427</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785199</v>
+        <v>111785244</v>
       </c>
       <c r="B75" t="n">
-        <v>89416</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1205</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577256.110519147</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R75" t="n">
-        <v>6944531.123615563</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785192</v>
+        <v>111785251</v>
       </c>
       <c r="B76" t="n">
-        <v>89405</v>
+        <v>93161</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1202</v>
+        <v>1079</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577281.7951240344</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R76" t="n">
-        <v>6944714.487089146</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785228</v>
+        <v>111785230</v>
       </c>
       <c r="B77" t="n">
         <v>78578</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577256.110519147</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R77" t="n">
-        <v>6944531.123615563</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785244</v>
+        <v>111785202</v>
       </c>
       <c r="B79" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577364.1822193989</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R79" t="n">
-        <v>6944621.578847388</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785235</v>
+        <v>111785228</v>
       </c>
       <c r="B81" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10006,21 +10006,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577226.625646919</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R81" t="n">
-        <v>6944648.749557905</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785200</v>
+        <v>111785235</v>
       </c>
       <c r="B82" t="n">
-        <v>78512</v>
+        <v>77267</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +10114,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577256.110519147</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R82" t="n">
-        <v>6944531.123615563</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785199</v>
+        <v>111785206</v>
       </c>
       <c r="B69" t="n">
-        <v>89416</v>
+        <v>77268</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8658,25 +8658,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1205</v>
+        <v>228912</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577256.110519147</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R69" t="n">
-        <v>6944531.123615563</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785229</v>
+        <v>111785201</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577208.3826684169</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R70" t="n">
-        <v>6944521.722980071</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785201</v>
+        <v>111785200</v>
       </c>
       <c r="B71" t="n">
         <v>78512</v>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577248.2772659193</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R71" t="n">
-        <v>6944530.940753835</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785206</v>
+        <v>111785251</v>
       </c>
       <c r="B72" t="n">
-        <v>77268</v>
+        <v>93161</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8994,25 +8994,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>228912</v>
+        <v>1079</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577235.6798241453</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R72" t="n">
-        <v>6944655.86623876</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785192</v>
+        <v>111785230</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9110,21 +9110,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577281.7951240344</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R73" t="n">
-        <v>6944714.487089146</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785200</v>
+        <v>111785191</v>
       </c>
       <c r="B74" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577256.110519147</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R74" t="n">
-        <v>6944531.123615563</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785251</v>
+        <v>111785229</v>
       </c>
       <c r="B76" t="n">
-        <v>93161</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1079</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577283.2535308318</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R76" t="n">
-        <v>6944533.598891968</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785230</v>
+        <v>111785235</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9558,21 +9558,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577261.8704127767</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R77" t="n">
-        <v>6944620.109213427</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785191</v>
+        <v>111785202</v>
       </c>
       <c r="B78" t="n">
-        <v>89405</v>
+        <v>78512</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9666,25 +9666,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577235.6798241453</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R78" t="n">
-        <v>6944655.86623876</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785202</v>
+        <v>111785192</v>
       </c>
       <c r="B79" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577215.0430418774</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R79" t="n">
-        <v>6944631.445974576</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785228</v>
+        <v>111785199</v>
       </c>
       <c r="B81" t="n">
-        <v>78578</v>
+        <v>89416</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10002,25 +10002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785235</v>
+        <v>111785228</v>
       </c>
       <c r="B82" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10118,21 +10118,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577226.625646919</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R82" t="n">
-        <v>6944648.749557905</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785206</v>
+        <v>111785251</v>
       </c>
       <c r="B69" t="n">
-        <v>77268</v>
+        <v>93161</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8658,25 +8658,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>228912</v>
+        <v>1079</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577235.6798241453</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R69" t="n">
-        <v>6944655.86623876</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785201</v>
+        <v>111785206</v>
       </c>
       <c r="B70" t="n">
-        <v>78512</v>
+        <v>77268</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6456</v>
+        <v>228912</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577248.2772659193</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R70" t="n">
-        <v>6944530.940753835</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785200</v>
+        <v>111785201</v>
       </c>
       <c r="B71" t="n">
         <v>78512</v>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577256.110519147</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R71" t="n">
-        <v>6944531.123615563</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785251</v>
+        <v>111785200</v>
       </c>
       <c r="B72" t="n">
-        <v>93161</v>
+        <v>78512</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8994,25 +8994,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1079</v>
+        <v>6456</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577283.2535308318</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R72" t="n">
-        <v>6944533.598891968</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785251</v>
+        <v>111785230</v>
       </c>
       <c r="B69" t="n">
-        <v>93161</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8658,25 +8658,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1079</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577283.2535308318</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R69" t="n">
-        <v>6944533.598891968</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785206</v>
+        <v>111785191</v>
       </c>
       <c r="B70" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8774,21 +8774,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785201</v>
+        <v>111785192</v>
       </c>
       <c r="B71" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577248.2772659193</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R71" t="n">
-        <v>6944530.940753835</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785200</v>
+        <v>111785202</v>
       </c>
       <c r="B72" t="n">
         <v>78512</v>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577256.110519147</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R72" t="n">
-        <v>6944531.123615563</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785230</v>
+        <v>111785199</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>89416</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9106,25 +9106,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577261.8704127767</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R73" t="n">
-        <v>6944620.109213427</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785191</v>
+        <v>111785206</v>
       </c>
       <c r="B74" t="n">
-        <v>89405</v>
+        <v>77268</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9222,21 +9222,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785244</v>
+        <v>111785201</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577364.1822193989</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R75" t="n">
-        <v>6944621.578847388</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785229</v>
+        <v>111785251</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>93161</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>1079</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577208.3826684169</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R76" t="n">
-        <v>6944521.722980071</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785235</v>
+        <v>111785190</v>
       </c>
       <c r="B77" t="n">
-        <v>77267</v>
+        <v>94134</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9558,21 +9558,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6446</v>
+        <v>53</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577226.625646919</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R77" t="n">
-        <v>6944648.749557905</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785202</v>
+        <v>111785235</v>
       </c>
       <c r="B78" t="n">
-        <v>78512</v>
+        <v>77267</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9666,25 +9666,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577215.0430418774</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R78" t="n">
-        <v>6944631.445974576</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785192</v>
+        <v>111785200</v>
       </c>
       <c r="B79" t="n">
-        <v>89405</v>
+        <v>78512</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577281.7951240344</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R79" t="n">
-        <v>6944714.487089146</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785190</v>
+        <v>111785229</v>
       </c>
       <c r="B80" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9894,21 +9894,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577242.972410051</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R80" t="n">
-        <v>6944540.945152098</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785199</v>
+        <v>111785244</v>
       </c>
       <c r="B81" t="n">
-        <v>89416</v>
+        <v>96348</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10002,25 +10002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1205</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577256.110519147</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R81" t="n">
-        <v>6944531.123615563</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785191</v>
+        <v>111785199</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>89416</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577235.6798241453</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R70" t="n">
-        <v>6944655.86623876</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785192</v>
+        <v>111785244</v>
       </c>
       <c r="B71" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577281.7951240344</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R71" t="n">
-        <v>6944714.487089146</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785202</v>
+        <v>111785190</v>
       </c>
       <c r="B72" t="n">
-        <v>78512</v>
+        <v>94134</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8994,25 +8994,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6456</v>
+        <v>53</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577215.0430418774</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R72" t="n">
-        <v>6944631.445974576</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785199</v>
+        <v>111785229</v>
       </c>
       <c r="B73" t="n">
-        <v>89416</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9106,25 +9106,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577256.110519147</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R73" t="n">
-        <v>6944531.123615563</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785206</v>
+        <v>111785192</v>
       </c>
       <c r="B74" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9222,21 +9222,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577235.6798241453</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R74" t="n">
-        <v>6944655.86623876</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785201</v>
+        <v>111785251</v>
       </c>
       <c r="B75" t="n">
-        <v>78512</v>
+        <v>93161</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6456</v>
+        <v>1079</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577248.2772659193</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R75" t="n">
-        <v>6944530.940753835</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785251</v>
+        <v>111785228</v>
       </c>
       <c r="B76" t="n">
-        <v>93161</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1079</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577283.2535308318</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R76" t="n">
-        <v>6944533.598891968</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785190</v>
+        <v>111785202</v>
       </c>
       <c r="B77" t="n">
-        <v>94134</v>
+        <v>78512</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9554,25 +9554,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>53</v>
+        <v>6456</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577242.972410051</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R77" t="n">
-        <v>6944540.945152098</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785235</v>
+        <v>111785191</v>
       </c>
       <c r="B78" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9670,21 +9670,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577226.625646919</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R78" t="n">
-        <v>6944648.749557905</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785200</v>
+        <v>111785235</v>
       </c>
       <c r="B79" t="n">
-        <v>78512</v>
+        <v>77267</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577256.110519147</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R79" t="n">
-        <v>6944531.123615563</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785229</v>
+        <v>111785206</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>77268</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9894,21 +9894,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577208.3826684169</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R80" t="n">
-        <v>6944521.722980071</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785244</v>
+        <v>111785201</v>
       </c>
       <c r="B81" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10002,25 +10002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577364.1822193989</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R81" t="n">
-        <v>6944621.578847388</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785228</v>
+        <v>111785200</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +10114,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785230</v>
+        <v>111785235</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8662,21 +8662,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577261.8704127767</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R69" t="n">
-        <v>6944620.109213427</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785199</v>
+        <v>111785202</v>
       </c>
       <c r="B70" t="n">
-        <v>89416</v>
+        <v>78512</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8774,21 +8774,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1205</v>
+        <v>6456</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577256.110519147</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R70" t="n">
-        <v>6944531.123615563</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785244</v>
+        <v>111785228</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577364.1822193989</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R71" t="n">
-        <v>6944621.578847388</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785190</v>
+        <v>111785229</v>
       </c>
       <c r="B72" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8998,21 +8998,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577242.972410051</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R72" t="n">
-        <v>6944540.945152098</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785229</v>
+        <v>111785192</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9110,21 +9110,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577208.3826684169</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R73" t="n">
-        <v>6944521.722980071</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785192</v>
+        <v>111785251</v>
       </c>
       <c r="B74" t="n">
-        <v>89405</v>
+        <v>93161</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1202</v>
+        <v>1079</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577281.7951240344</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R74" t="n">
-        <v>6944714.487089146</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785251</v>
+        <v>111785199</v>
       </c>
       <c r="B75" t="n">
-        <v>93161</v>
+        <v>89416</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1079</v>
+        <v>1205</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577283.2535308318</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R75" t="n">
-        <v>6944533.598891968</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785228</v>
+        <v>111785201</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577256.110519147</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R76" t="n">
-        <v>6944531.123615563</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785202</v>
+        <v>111785200</v>
       </c>
       <c r="B77" t="n">
         <v>78512</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577215.0430418774</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R77" t="n">
-        <v>6944631.445974576</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785191</v>
+        <v>111785190</v>
       </c>
       <c r="B78" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9670,21 +9670,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577235.6798241453</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R78" t="n">
-        <v>6944655.86623876</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785235</v>
+        <v>111785230</v>
       </c>
       <c r="B79" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9782,21 +9782,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577226.625646919</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R79" t="n">
-        <v>6944648.749557905</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785206</v>
+        <v>111785244</v>
       </c>
       <c r="B80" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9890,25 +9890,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577235.6798241453</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R80" t="n">
-        <v>6944655.86623876</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785201</v>
+        <v>111785206</v>
       </c>
       <c r="B81" t="n">
-        <v>78512</v>
+        <v>77268</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10002,25 +10002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6456</v>
+        <v>228912</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577248.2772659193</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R81" t="n">
-        <v>6944530.940753835</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785200</v>
+        <v>111785191</v>
       </c>
       <c r="B82" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +10114,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577256.110519147</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R82" t="n">
-        <v>6944531.123615563</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785235</v>
+        <v>111785244</v>
       </c>
       <c r="B69" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8658,25 +8658,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577226.625646919</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R69" t="n">
-        <v>6944648.749557905</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785202</v>
+        <v>111785199</v>
       </c>
       <c r="B70" t="n">
-        <v>78512</v>
+        <v>89416</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8774,21 +8774,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6456</v>
+        <v>1205</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577215.0430418774</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R70" t="n">
-        <v>6944631.445974576</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785228</v>
+        <v>111785202</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577256.110519147</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R71" t="n">
-        <v>6944531.123615563</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785229</v>
+        <v>111785235</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8998,21 +8998,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577208.3826684169</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R72" t="n">
-        <v>6944521.722980071</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785192</v>
+        <v>111785251</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>93161</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9106,25 +9106,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>1079</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577281.7951240344</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R73" t="n">
-        <v>6944714.487089146</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785251</v>
+        <v>111785192</v>
       </c>
       <c r="B74" t="n">
-        <v>93161</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1079</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577283.2535308318</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R74" t="n">
-        <v>6944533.598891968</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785199</v>
+        <v>111785206</v>
       </c>
       <c r="B75" t="n">
-        <v>89416</v>
+        <v>77268</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1205</v>
+        <v>228912</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577256.110519147</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R75" t="n">
-        <v>6944531.123615563</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785201</v>
+        <v>111785230</v>
       </c>
       <c r="B76" t="n">
-        <v>78512</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577248.2772659193</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R76" t="n">
-        <v>6944530.940753835</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785200</v>
+        <v>111785201</v>
       </c>
       <c r="B77" t="n">
         <v>78512</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577256.110519147</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R77" t="n">
-        <v>6944531.123615563</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785190</v>
+        <v>111785200</v>
       </c>
       <c r="B78" t="n">
-        <v>94134</v>
+        <v>78512</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9666,25 +9666,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>53</v>
+        <v>6456</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577242.972410051</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R78" t="n">
-        <v>6944540.945152098</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785230</v>
+        <v>111785228</v>
       </c>
       <c r="B79" t="n">
         <v>78578</v>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577261.8704127767</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R79" t="n">
-        <v>6944620.109213427</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785244</v>
+        <v>111785191</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9890,25 +9890,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577364.1822193989</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R80" t="n">
-        <v>6944621.578847388</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785206</v>
+        <v>111785229</v>
       </c>
       <c r="B81" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10006,21 +10006,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577235.6798241453</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R81" t="n">
-        <v>6944655.86623876</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785191</v>
+        <v>111785190</v>
       </c>
       <c r="B82" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10118,21 +10118,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577235.6798241453</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R82" t="n">
-        <v>6944655.86623876</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785244</v>
+        <v>111785190</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8658,25 +8658,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577364.1822193989</v>
+        <v>577242.972410051</v>
       </c>
       <c r="R69" t="n">
-        <v>6944621.578847388</v>
+        <v>6944540.945152098</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785199</v>
+        <v>111785230</v>
       </c>
       <c r="B70" t="n">
-        <v>89416</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,25 +8770,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577256.110519147</v>
+        <v>577261.8704127767</v>
       </c>
       <c r="R70" t="n">
-        <v>6944531.123615563</v>
+        <v>6944620.109213427</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785202</v>
+        <v>111785244</v>
       </c>
       <c r="B71" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8882,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8910,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577215.0430418774</v>
+        <v>577364.1822193989</v>
       </c>
       <c r="R71" t="n">
-        <v>6944631.445974576</v>
+        <v>6944621.578847388</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785235</v>
+        <v>111785206</v>
       </c>
       <c r="B72" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8998,21 +8998,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577226.625646919</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R72" t="n">
-        <v>6944648.749557905</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785251</v>
+        <v>111785202</v>
       </c>
       <c r="B73" t="n">
-        <v>93161</v>
+        <v>78512</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9106,25 +9106,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1079</v>
+        <v>6456</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9134,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577283.2535308318</v>
+        <v>577215.0430418774</v>
       </c>
       <c r="R73" t="n">
-        <v>6944533.598891968</v>
+        <v>6944631.445974576</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785192</v>
+        <v>111785200</v>
       </c>
       <c r="B74" t="n">
-        <v>89405</v>
+        <v>78512</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577281.7951240344</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R74" t="n">
-        <v>6944714.487089146</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785206</v>
+        <v>111785235</v>
       </c>
       <c r="B75" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9334,21 +9334,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577235.6798241453</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R75" t="n">
-        <v>6944655.86623876</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785230</v>
+        <v>111785201</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9442,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577261.8704127767</v>
+        <v>577248.2772659193</v>
       </c>
       <c r="R76" t="n">
-        <v>6944620.109213427</v>
+        <v>6944530.940753835</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785201</v>
+        <v>111785229</v>
       </c>
       <c r="B77" t="n">
-        <v>78512</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9554,25 +9554,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577248.2772659193</v>
+        <v>577208.3826684169</v>
       </c>
       <c r="R77" t="n">
-        <v>6944530.940753835</v>
+        <v>6944521.722980071</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785200</v>
+        <v>111785191</v>
       </c>
       <c r="B78" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9666,25 +9666,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577256.110519147</v>
+        <v>577235.6798241453</v>
       </c>
       <c r="R78" t="n">
-        <v>6944531.123615563</v>
+        <v>6944655.86623876</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785228</v>
+        <v>111785251</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>93161</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9778,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>1079</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577256.110519147</v>
+        <v>577283.2535308318</v>
       </c>
       <c r="R79" t="n">
-        <v>6944531.123615563</v>
+        <v>6944533.598891968</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785191</v>
+        <v>111785228</v>
       </c>
       <c r="B80" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9894,21 +9894,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9918,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577235.6798241453</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R80" t="n">
-        <v>6944655.86623876</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785229</v>
+        <v>111785192</v>
       </c>
       <c r="B81" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10006,21 +10006,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577208.3826684169</v>
+        <v>577281.7951240344</v>
       </c>
       <c r="R81" t="n">
-        <v>6944521.722980071</v>
+        <v>6944714.487089146</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785190</v>
+        <v>111785199</v>
       </c>
       <c r="B82" t="n">
-        <v>94134</v>
+        <v>89416</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +10114,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53</v>
+        <v>1205</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577242.972410051</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R82" t="n">
-        <v>6944540.945152098</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -9206,10 +9206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785200</v>
+        <v>111785235</v>
       </c>
       <c r="B74" t="n">
-        <v>78512</v>
+        <v>77267</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9218,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577256.110519147</v>
+        <v>577226.625646919</v>
       </c>
       <c r="R74" t="n">
-        <v>6944531.123615563</v>
+        <v>6944648.749557905</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9318,10 +9318,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785235</v>
+        <v>111785200</v>
       </c>
       <c r="B75" t="n">
-        <v>77267</v>
+        <v>78512</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9330,25 +9330,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6446</v>
+        <v>6456</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577226.625646919</v>
+        <v>577256.110519147</v>
       </c>
       <c r="R75" t="n">
-        <v>6944648.749557905</v>
+        <v>6944531.123615563</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785190</v>
+        <v>111785228</v>
       </c>
       <c r="B69" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8662,21 +8662,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577242.972410051</v>
+        <v>577256</v>
       </c>
       <c r="R69" t="n">
-        <v>6944540.945152098</v>
+        <v>6944531</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8719,19 +8719,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8798,10 +8788,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577261.8704127767</v>
+        <v>577262</v>
       </c>
       <c r="R70" t="n">
-        <v>6944620.109213427</v>
+        <v>6944620</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8831,19 +8821,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8870,10 +8850,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785244</v>
+        <v>111785200</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8882,25 +8862,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8910,10 +8890,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577364.1822193989</v>
+        <v>577256</v>
       </c>
       <c r="R71" t="n">
-        <v>6944621.578847388</v>
+        <v>6944531</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8943,19 +8923,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8982,10 +8952,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785206</v>
+        <v>111785244</v>
       </c>
       <c r="B72" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8994,25 +8964,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9022,10 +8992,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577235.6798241453</v>
+        <v>577364</v>
       </c>
       <c r="R72" t="n">
-        <v>6944655.86623876</v>
+        <v>6944622</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9055,19 +9025,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9094,10 +9054,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785202</v>
+        <v>111785235</v>
       </c>
       <c r="B73" t="n">
-        <v>78512</v>
+        <v>77267</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9106,25 +9066,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9134,10 +9094,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577215.0430418774</v>
+        <v>577227</v>
       </c>
       <c r="R73" t="n">
-        <v>6944631.445974576</v>
+        <v>6944649</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9167,19 +9127,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9206,10 +9156,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785235</v>
+        <v>111785251</v>
       </c>
       <c r="B74" t="n">
-        <v>77267</v>
+        <v>93161</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9218,25 +9168,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6446</v>
+        <v>1079</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9246,10 +9196,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577226.625646919</v>
+        <v>577283</v>
       </c>
       <c r="R74" t="n">
-        <v>6944648.749557905</v>
+        <v>6944534</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9279,19 +9229,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA74" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9318,7 +9258,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785200</v>
+        <v>111785201</v>
       </c>
       <c r="B75" t="n">
         <v>78512</v>
@@ -9358,10 +9298,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577256.110519147</v>
+        <v>577248</v>
       </c>
       <c r="R75" t="n">
-        <v>6944531.123615563</v>
+        <v>6944531</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9391,19 +9331,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9430,10 +9360,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785201</v>
+        <v>111785191</v>
       </c>
       <c r="B76" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9442,25 +9372,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9470,10 +9400,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577248.2772659193</v>
+        <v>577236</v>
       </c>
       <c r="R76" t="n">
-        <v>6944530.940753835</v>
+        <v>6944656</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9503,19 +9433,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9542,10 +9462,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785229</v>
+        <v>111785199</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>89416</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9554,25 +9474,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9582,10 +9502,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577208.3826684169</v>
+        <v>577256</v>
       </c>
       <c r="R77" t="n">
-        <v>6944521.722980071</v>
+        <v>6944531</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9615,19 +9535,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9654,7 +9564,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785191</v>
+        <v>111785192</v>
       </c>
       <c r="B78" t="n">
         <v>89405</v>
@@ -9694,10 +9604,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577235.6798241453</v>
+        <v>577282</v>
       </c>
       <c r="R78" t="n">
-        <v>6944655.86623876</v>
+        <v>6944714</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9727,19 +9637,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9766,10 +9666,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785251</v>
+        <v>111785202</v>
       </c>
       <c r="B79" t="n">
-        <v>93161</v>
+        <v>78512</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9778,25 +9678,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1079</v>
+        <v>6456</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9806,10 +9706,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577283.2535308318</v>
+        <v>577215</v>
       </c>
       <c r="R79" t="n">
-        <v>6944533.598891968</v>
+        <v>6944631</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9839,19 +9739,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9878,10 +9768,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785228</v>
+        <v>111785190</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9894,21 +9784,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9918,10 +9808,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577256.110519147</v>
+        <v>577243</v>
       </c>
       <c r="R80" t="n">
-        <v>6944531.123615563</v>
+        <v>6944541</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9951,19 +9841,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9990,10 +9870,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785192</v>
+        <v>111785229</v>
       </c>
       <c r="B81" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10006,21 +9886,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10030,10 +9910,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577281.7951240344</v>
+        <v>577208</v>
       </c>
       <c r="R81" t="n">
-        <v>6944714.487089146</v>
+        <v>6944522</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10063,19 +9943,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10102,10 +9972,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785199</v>
+        <v>111785206</v>
       </c>
       <c r="B82" t="n">
-        <v>89416</v>
+        <v>77268</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10114,25 +9984,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1205</v>
+        <v>228912</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10142,10 +10012,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577256.110519147</v>
+        <v>577236</v>
       </c>
       <c r="R82" t="n">
-        <v>6944531.123615563</v>
+        <v>6944656</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10175,19 +10045,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD82" t="b">

--- a/artfynd/A 65633-2020.xlsx
+++ b/artfynd/A 65633-2020.xlsx
@@ -8646,7 +8646,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111785228</v>
+        <v>111785229</v>
       </c>
       <c r="B69" t="n">
         <v>78578</v>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>577256</v>
+        <v>577208</v>
       </c>
       <c r="R69" t="n">
-        <v>6944531</v>
+        <v>6944522</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111785230</v>
+        <v>111785200</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8760,25 +8760,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8788,10 +8788,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>577262</v>
+        <v>577256</v>
       </c>
       <c r="R70" t="n">
-        <v>6944620</v>
+        <v>6944531</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8850,10 +8850,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111785200</v>
+        <v>111785192</v>
       </c>
       <c r="B71" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8862,25 +8862,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8890,10 +8890,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>577256</v>
+        <v>577282</v>
       </c>
       <c r="R71" t="n">
-        <v>6944531</v>
+        <v>6944714</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111785244</v>
+        <v>111785199</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>89416</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8964,25 +8964,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>1205</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8992,10 +8992,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>577364</v>
+        <v>577256</v>
       </c>
       <c r="R72" t="n">
-        <v>6944622</v>
+        <v>6944531</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111785235</v>
+        <v>111785190</v>
       </c>
       <c r="B73" t="n">
-        <v>77267</v>
+        <v>94134</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9070,21 +9070,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6446</v>
+        <v>53</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9094,10 +9094,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>577227</v>
+        <v>577243</v>
       </c>
       <c r="R73" t="n">
-        <v>6944649</v>
+        <v>6944541</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9156,10 +9156,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111785251</v>
+        <v>111785191</v>
       </c>
       <c r="B74" t="n">
-        <v>93161</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9168,25 +9168,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1079</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9196,10 +9196,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>577283</v>
+        <v>577236</v>
       </c>
       <c r="R74" t="n">
-        <v>6944534</v>
+        <v>6944656</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111785201</v>
+        <v>111785251</v>
       </c>
       <c r="B75" t="n">
-        <v>78512</v>
+        <v>93161</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9270,25 +9270,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6456</v>
+        <v>1079</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>577248</v>
+        <v>577283</v>
       </c>
       <c r="R75" t="n">
-        <v>6944531</v>
+        <v>6944534</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9360,10 +9360,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111785191</v>
+        <v>111785201</v>
       </c>
       <c r="B76" t="n">
-        <v>89405</v>
+        <v>78512</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9372,25 +9372,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9400,10 +9400,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>577236</v>
+        <v>577248</v>
       </c>
       <c r="R76" t="n">
-        <v>6944656</v>
+        <v>6944531</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9462,10 +9462,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111785199</v>
+        <v>111785230</v>
       </c>
       <c r="B77" t="n">
-        <v>89416</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9474,25 +9474,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>577256</v>
+        <v>577262</v>
       </c>
       <c r="R77" t="n">
-        <v>6944531</v>
+        <v>6944620</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9564,10 +9564,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111785192</v>
+        <v>111785206</v>
       </c>
       <c r="B78" t="n">
-        <v>89405</v>
+        <v>77268</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9580,21 +9580,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9604,10 +9604,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>577282</v>
+        <v>577236</v>
       </c>
       <c r="R78" t="n">
-        <v>6944714</v>
+        <v>6944656</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9666,10 +9666,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111785202</v>
+        <v>111785244</v>
       </c>
       <c r="B79" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9678,25 +9678,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>577215</v>
+        <v>577364</v>
       </c>
       <c r="R79" t="n">
-        <v>6944631</v>
+        <v>6944622</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9768,10 +9768,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111785190</v>
+        <v>111785228</v>
       </c>
       <c r="B80" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9784,21 +9784,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9808,10 +9808,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>577243</v>
+        <v>577256</v>
       </c>
       <c r="R80" t="n">
-        <v>6944541</v>
+        <v>6944531</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9870,10 +9870,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111785229</v>
+        <v>111785202</v>
       </c>
       <c r="B81" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9882,25 +9882,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9910,10 +9910,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>577208</v>
+        <v>577215</v>
       </c>
       <c r="R81" t="n">
-        <v>6944522</v>
+        <v>6944631</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9972,10 +9972,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111785206</v>
+        <v>111785235</v>
       </c>
       <c r="B82" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9988,21 +9988,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10012,10 +10012,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>577236</v>
+        <v>577227</v>
       </c>
       <c r="R82" t="n">
-        <v>6944656</v>
+        <v>6944649</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
